--- a/test/ai染色体同报告图染色体匹配案例分析-A2312269442.005.AIK-A2402020001.001.xlsx
+++ b/test/ai染色体同报告图染色体匹配案例分析-A2312269442.005.AIK-A2402020001.001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prj\github\woodpecker\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4486471-1C05-4959-ADC3-7D6BA7DF4D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DA0116-F4E9-40D5-BB57-C941A2B31BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22065" yWindow="60" windowWidth="29595" windowHeight="20835" xr2:uid="{DC9544A6-CF23-4D76-97DE-EC24EB5BCB65}"/>
+    <workbookView xWindow="16770" yWindow="0" windowWidth="34860" windowHeight="20955" xr2:uid="{DC9544A6-CF23-4D76-97DE-EC24EB5BCB65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="313">
   <si>
     <t>AI_RST-0-[1.0]=&gt;KYT_RST-0-[1.0] = 0.02%</t>
   </si>
@@ -322,10 +322,6 @@
   </si>
   <si>
     <t>SIFT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShapeMatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -679,6 +675,382 @@
   </si>
   <si>
     <t>ai-22.1是kyt-22.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ShapeMatch (cv2.CONTOURS_MATCH_I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ShapeMatch (cv2.CONTOURS_MATCH_I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ShapeMatch (cv2.CONTOURS_MATCH_I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_RST0-[1.0]=&gt;KYT_RST0-[1.0] = 0.06%</t>
+  </si>
+  <si>
+    <t>AI_RST1-[1.1]=&gt;KYT_RST1-[1.1] = 0.20%</t>
+  </si>
+  <si>
+    <t>AI_RST2-[2.0]=&gt;KYT_RST3-[2.1] = 0.75%</t>
+  </si>
+  <si>
+    <t>AI_RST3-[11.0]=&gt;KYT_RST21-[11.1] = 0.10%</t>
+  </si>
+  <si>
+    <t>AI_RST4-[11.1]=&gt;KYT_RST16-[9.0] = 0.23%</t>
+  </si>
+  <si>
+    <t>AI_RST5-[12.0]=&gt;KYT_RST18-[10.0] = 0.10%</t>
+  </si>
+  <si>
+    <t>AI_RST6-[12.1]=&gt;KYT_RST23-[12.1] = 0.13%</t>
+  </si>
+  <si>
+    <t>AI_RST7-[13.0]=&gt;KYT_RST25-[13.1] = 0.03%</t>
+  </si>
+  <si>
+    <t>AI_RST8-[13.1]=&gt;KYT_RST33-[18.0] = 0.04%</t>
+  </si>
+  <si>
+    <t>AI_RST9-[13.2]=&gt;KYT_RST29-[15.1] = 0.05%</t>
+  </si>
+  <si>
+    <t>AI_RST10-[13.3]=&gt;KYT_RST22-[12.0] = 0.12%</t>
+  </si>
+  <si>
+    <t>AI_RST11-[14.0]=&gt;KYT_RST28-[15.0] = 0.05%</t>
+  </si>
+  <si>
+    <t>AI_RST12-[14.1]=&gt;KYT_RST24-[13.0] = 0.10%</t>
+  </si>
+  <si>
+    <t>AI_RST13-[14.2]=&gt;KYT_RST43-[X.0] = 0.05%</t>
+  </si>
+  <si>
+    <t>AI_RST14-[14.3]=&gt;KYT_RST41-[22.0] = 0.22%</t>
+  </si>
+  <si>
+    <t>AI_RST15-[15.0]=&gt;KYT_RST29-[15.1] = 0.06%</t>
+  </si>
+  <si>
+    <t>AI_RST16-[15.1]=&gt;KYT_RST25-[13.1] = 0.05%</t>
+  </si>
+  <si>
+    <t>AI_RST17-[16.0]=&gt;KYT_RST31-[16.1] = 0.04%</t>
+  </si>
+  <si>
+    <t>AI_RST18-[16.1]=&gt;KYT_RST30-[16.0] = 0.07%</t>
+  </si>
+  <si>
+    <t>AI_RST19-[17.0]=&gt;KYT_RST24-[13.0] = 0.05%</t>
+  </si>
+  <si>
+    <t>AI_RST20-[17.1]=&gt;KYT_RST41-[22.0] = 0.39%</t>
+  </si>
+  <si>
+    <t>AI_RST21-[18.0]=&gt;KYT_RST35-[19.0] = 0.01%</t>
+  </si>
+  <si>
+    <t>AI_RST22-[18.1]=&gt;KYT_RST35-[19.0] = 0.08%</t>
+  </si>
+  <si>
+    <t>AI_RST23-[19.0]=&gt;KYT_RST32-[17.0] = 0.06%</t>
+  </si>
+  <si>
+    <t>AI_RST24-[19.1]=&gt;KYT_RST35-[19.0] = 0.05%</t>
+  </si>
+  <si>
+    <t>AI_RST25-[20.0]=&gt;KYT_RST38-[20.1] = 0.03%</t>
+  </si>
+  <si>
+    <t>AI_RST26-[20.1]=&gt;KYT_RST35-[19.0] = 0.07%</t>
+  </si>
+  <si>
+    <t>AI_RST27-[20.2]=&gt;KYT_RST35-[19.0] = 0.08%</t>
+  </si>
+  <si>
+    <t>AI_RST28-[3.0]=&gt;KYT_RST5-[3.1] = 0.20%</t>
+  </si>
+  <si>
+    <t>AI_RST29-[3.1]=&gt;KYT_RST5-[3.1] = 0.05%</t>
+  </si>
+  <si>
+    <t>AI_RST30-[21.0]=&gt;KYT_RST39-[21.0] = 0.05%</t>
+  </si>
+  <si>
+    <t>AI_RST31-[21.1]=&gt;KYT_RST40-[21.1] = 0.07%</t>
+  </si>
+  <si>
+    <t>AI_RST32-[21.2]=&gt;KYT_RST41-[22.0] = 0.29%</t>
+  </si>
+  <si>
+    <t>AI_RST33-[22.0]=&gt;KYT_RST40-[21.1] = 0.03%</t>
+  </si>
+  <si>
+    <t>AI_RST34-[22.1]=&gt;KYT_RST40-[21.1] = 0.03%</t>
+  </si>
+  <si>
+    <t>AI_RST35-[X.0]=&gt;KYT_RST16-[9.0] = 0.06%</t>
+  </si>
+  <si>
+    <t>AI_RST36-[X.1]=&gt;KYT_RST22-[12.0] = 0.07%</t>
+  </si>
+  <si>
+    <t>AI_RST37-[5.0]=&gt;KYT_RST6-[4.0] = 0.31%</t>
+  </si>
+  <si>
+    <t>AI_RST38-[5.1]=&gt;KYT_RST6-[4.0] = 0.12%</t>
+  </si>
+  <si>
+    <t>AI_RST39-[6.0]=&gt;KYT_RST13-[7.1] = 0.11%</t>
+  </si>
+  <si>
+    <t>AI_RST40-[6.1]=&gt;KYT_RST9-[5.1] = 0.12%</t>
+  </si>
+  <si>
+    <t>AI_RST41-[7.0]=&gt;KYT_RST8-[5.0] = 0.16%</t>
+  </si>
+  <si>
+    <t>AI_RST42-[7.1]=&gt;KYT_RST11-[6.1] = 0.07%</t>
+  </si>
+  <si>
+    <t>AI_RST43-[8.0]=&gt;KYT_RST16-[9.0] = 0.18%</t>
+  </si>
+  <si>
+    <t>AI_RST44-[8.1]=&gt;KYT_RST11-[6.1] = 0.12%</t>
+  </si>
+  <si>
+    <t>AI_RST45-[9.0]=&gt;KYT_RST11-[6.1] = 0.08%</t>
+  </si>
+  <si>
+    <t>AI_RST46-[9.1]=&gt;KYT_RST17-[9.1] = 0.17%</t>
+  </si>
+  <si>
+    <t>AI_RST47-[10.0]=&gt;KYT_RST15-[8.1] = 0.05%</t>
+  </si>
+  <si>
+    <t>AI_RST48-[10.1]=&gt;KYT_RST15-[8.1] = 0.10%</t>
+  </si>
+  <si>
+    <t>AI_RST0-[1.0]=&gt;KYT_RST0-[1.0] = 0.14%</t>
+  </si>
+  <si>
+    <t>AI_RST1-[1.1]=&gt;KYT_RST1-[1.1] = 1.31%</t>
+  </si>
+  <si>
+    <t>AI_RST2-[2.0]=&gt;KYT_RST3-[2.1] = 0.13%</t>
+  </si>
+  <si>
+    <t>AI_RST3-[11.0]=&gt;KYT_RST13-[7.1] = 0.35%</t>
+  </si>
+  <si>
+    <t>AI_RST4-[11.1]=&gt;KYT_RST35-[19.0] = 0.79%</t>
+  </si>
+  <si>
+    <t>AI_RST5-[12.0]=&gt;KYT_RST15-[8.1] = 0.31%</t>
+  </si>
+  <si>
+    <t>AI_RST6-[12.1]=&gt;KYT_RST23-[12.1] = 0.40%</t>
+  </si>
+  <si>
+    <t>AI_RST7-[13.0]=&gt;KYT_RST25-[13.1] = 0.19%</t>
+  </si>
+  <si>
+    <t>AI_RST8-[13.1]=&gt;KYT_RST35-[19.0] = 0.20%</t>
+  </si>
+  <si>
+    <t>AI_RST9-[13.2]=&gt;KYT_RST28-[15.0] = 0.22%</t>
+  </si>
+  <si>
+    <t>AI_RST10-[13.3]=&gt;KYT_RST10-[6.0] = 0.51%</t>
+  </si>
+  <si>
+    <t>AI_RST11-[14.0]=&gt;KYT_RST35-[19.0] = 0.23%</t>
+  </si>
+  <si>
+    <t>AI_RST12-[14.1]=&gt;KYT_RST35-[19.0] = 0.20%</t>
+  </si>
+  <si>
+    <t>AI_RST13-[14.2]=&gt;KYT_RST43-[X.0] = 0.25%</t>
+  </si>
+  <si>
+    <t>AI_RST14-[14.3]=&gt;KYT_RST35-[19.0] = 0.93%</t>
+  </si>
+  <si>
+    <t>AI_RST15-[15.0]=&gt;KYT_RST29-[15.1] = 0.26%</t>
+  </si>
+  <si>
+    <t>AI_RST16-[15.1]=&gt;KYT_RST18-[10.0] = 0.26%</t>
+  </si>
+  <si>
+    <t>AI_RST17-[16.0]=&gt;KYT_RST30-[16.0] = 0.18%</t>
+  </si>
+  <si>
+    <t>AI_RST18-[16.1]=&gt;KYT_RST30-[16.0] = 0.14%</t>
+  </si>
+  <si>
+    <t>AI_RST19-[17.0]=&gt;KYT_RST35-[19.0] = 0.16%</t>
+  </si>
+  <si>
+    <t>AI_RST20-[17.1]=&gt;KYT_RST38-[20.1] = 1.85%</t>
+  </si>
+  <si>
+    <t>AI_RST22-[18.1]=&gt;KYT_RST35-[19.0] = 0.12%</t>
+  </si>
+  <si>
+    <t>AI_RST23-[19.0]=&gt;KYT_RST35-[19.0] = 0.08%</t>
+  </si>
+  <si>
+    <t>AI_RST24-[19.1]=&gt;KYT_RST35-[19.0] = 0.07%</t>
+  </si>
+  <si>
+    <t>AI_RST25-[20.0]=&gt;KYT_RST37-[20.0] = 0.10%</t>
+  </si>
+  <si>
+    <t>AI_RST26-[20.1]=&gt;KYT_RST35-[19.0] = 0.12%</t>
+  </si>
+  <si>
+    <t>AI_RST27-[20.2]=&gt;KYT_RST35-[19.0] = 0.12%</t>
+  </si>
+  <si>
+    <t>AI_RST28-[3.0]=&gt;KYT_RST4-[3.0] = 0.51%</t>
+  </si>
+  <si>
+    <t>AI_RST29-[3.1]=&gt;KYT_RST5-[3.1] = 0.19%</t>
+  </si>
+  <si>
+    <t>AI_RST30-[21.0]=&gt;KYT_RST35-[19.0] = 0.22%</t>
+  </si>
+  <si>
+    <t>AI_RST31-[21.1]=&gt;KYT_RST35-[19.0] = 0.34%</t>
+  </si>
+  <si>
+    <t>AI_RST32-[21.2]=&gt;KYT_RST41-[22.0] = 1.48%</t>
+  </si>
+  <si>
+    <t>AI_RST33-[22.0]=&gt;KYT_RST42-[22.1] = 0.15%</t>
+  </si>
+  <si>
+    <t>AI_RST34-[22.1]=&gt;KYT_RST40-[21.1] = 0.22%</t>
+  </si>
+  <si>
+    <t>AI_RST35-[X.0]=&gt;KYT_RST8-[5.0] = 0.38%</t>
+  </si>
+  <si>
+    <t>AI_RST36-[X.1]=&gt;KYT_RST43-[X.0] = 0.23%</t>
+  </si>
+  <si>
+    <t>AI_RST37-[5.0]=&gt;KYT_RST12-[7.0] = 0.53%</t>
+  </si>
+  <si>
+    <t>AI_RST38-[5.1]=&gt;KYT_RST12-[7.0] = 0.50%</t>
+  </si>
+  <si>
+    <t>AI_RST39-[6.0]=&gt;KYT_RST13-[7.1] = 0.23%</t>
+  </si>
+  <si>
+    <t>AI_RST40-[6.1]=&gt;KYT_RST13-[7.1] = 0.34%</t>
+  </si>
+  <si>
+    <t>AI_RST41-[7.0]=&gt;KYT_RST12-[7.0] = 0.29%</t>
+  </si>
+  <si>
+    <t>AI_RST42-[7.1]=&gt;KYT_RST12-[7.0] = 0.17%</t>
+  </si>
+  <si>
+    <t>AI_RST43-[8.0]=&gt;KYT_RST35-[19.0] = 0.78%</t>
+  </si>
+  <si>
+    <t>AI_RST44-[8.1]=&gt;KYT_RST12-[7.0] = 0.32%</t>
+  </si>
+  <si>
+    <t>AI_RST45-[9.0]=&gt;KYT_RST12-[7.0] = 0.35%</t>
+  </si>
+  <si>
+    <t>AI_RST46-[9.1]=&gt;KYT_RST35-[19.0] = 0.42%</t>
+  </si>
+  <si>
+    <t>AI_RST47-[10.0]=&gt;KYT_RST15-[8.1] = 0.47%</t>
+  </si>
+  <si>
+    <t>AI_RST48-[10.1]=&gt;KYT_RST18-[10.0] = 0.43%</t>
+  </si>
+  <si>
+    <t>ai-X.1是kyt-4.1下臂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +1058,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,8 +1089,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,6 +1123,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -758,7 +1144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,16 +1157,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -788,6 +1171,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389885EE-7B3B-4E57-9347-9933DA0E8B4A}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -1119,781 +1511,1087 @@
     <col min="6" max="6" width="8" style="4" customWidth="1"/>
     <col min="7" max="7" width="48.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="9" max="9" width="43.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="43.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="I11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="51.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>151</v>
+      <c r="B25" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G27" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>208</v>
+      <c r="B28" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G31" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="I33" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>210</v>
+      <c r="B34" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34" s="7"/>
+        <v>185</v>
+      </c>
+      <c r="F34" s="6"/>
       <c r="G34" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="B38" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="C38" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G39" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G40" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G43" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G44" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G45" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G48" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I48" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G49" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I49" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G50" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I50" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>21.655692100524899</v>
       </c>
@@ -1903,8 +2601,14 @@
       <c r="E51" s="1">
         <v>22.0524067878723</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="1">
         <v>6.5076351165771398E-3</v>
+      </c>
+      <c r="I51" s="1">
+        <v>8.0199241638183594E-3</v>
+      </c>
+      <c r="K51" s="1">
+        <v>7.0276260375976502E-3</v>
       </c>
     </row>
   </sheetData>
